--- a/Data for tests/Таблица.xlsx
+++ b/Data for tests/Таблица.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\ShrekWebApp\Data for tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19183564-50F0-4003-9EF1-DDCE4FD12D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF232F-4C22-416F-9C19-A054A9F82807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:E5735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="A7:E15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
